--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_3391.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_3391.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3391</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Kevin Joseph O'Brien</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2485</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2503</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2599</t>
+          <t>2599</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2601</t>
+          <t>2601</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2606</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2610</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2616</t>
+          <t>2616</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2642</t>
+          <t>2642</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2646</t>
+          <t>2646</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2658</t>
+          <t>2658</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2665</t>
+          <t>2665</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2673</t>
+          <t>2673</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1128,7 +1193,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2677</t>
+          <t>2677</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1180,7 +1245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2679</t>
+          <t>2679</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1232,7 +1297,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2682</t>
+          <t>2682</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1284,7 +1349,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2698</t>
+          <t>2698</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1336,7 +1401,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2699</t>
+          <t>2699</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1388,7 +1453,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2711</t>
+          <t>2711</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1440,7 +1505,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2714</t>
+          <t>2714</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1492,7 +1557,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2715</t>
+          <t>2715</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1544,7 +1609,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2805</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1596,7 +1661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2806</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1648,7 +1713,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2807</t>
+          <t>2807</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1688,7 +1753,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>28/07/2008</t>
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2849</t>
+          <t>2849</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2851</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,7 +1864,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2883</t>
+          <t>2883</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1852,7 +1916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2884</t>
+          <t>2884</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1892,7 +1956,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>01/04/2009</t>
@@ -1900,7 +1963,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2952</t>
+          <t>2952</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1952,7 +2015,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2958</t>
+          <t>2958</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1992,7 +2055,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>19/04/2009</t>
@@ -2000,7 +2062,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2965</t>
+          <t>2965</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2052,7 +2114,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2981</t>
+          <t>2981</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2092,7 +2154,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>11/07/2009</t>
@@ -2100,7 +2161,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2983</t>
+          <t>2983</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2152,7 +2213,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2984</t>
+          <t>2984</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2204,7 +2265,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3001</t>
+          <t>3001</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2256,7 +2317,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3005</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2308,7 +2369,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3108</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2360,7 +2421,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3124</t>
+          <t>3124</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2412,7 +2473,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3136</t>
+          <t>3136</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2464,7 +2525,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3138</t>
+          <t>3138</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2516,7 +2577,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3143</t>
+          <t>3143</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2568,7 +2629,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3145</t>
+          <t>3145</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2620,7 +2681,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3151</t>
+          <t>3151</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2672,7 +2733,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3154</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2724,7 +2785,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3157</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2776,7 +2837,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3158</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2828,7 +2889,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3165</t>
+          <t>3165</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2868,7 +2929,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>18/08/2010</t>
@@ -2876,7 +2936,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3167</t>
+          <t>3167</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2928,7 +2988,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3172</t>
+          <t>3172</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2980,7 +3040,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3173</t>
+          <t>3173</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3032,7 +3092,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3179</t>
+          <t>3179</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3084,7 +3144,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3180</t>
+          <t>3180</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3136,7 +3196,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3181</t>
+          <t>3181</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3188,7 +3248,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3243</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3240,7 +3300,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3249</t>
+          <t>3249</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3292,7 +3352,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3256</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3344,7 +3404,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3261</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3396,7 +3456,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3268</t>
+          <t>3268</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3448,7 +3508,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3271</t>
+          <t>3271</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3500,7 +3560,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3292</t>
+          <t>3292</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3552,7 +3612,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3293</t>
+          <t>3293</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3604,7 +3664,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3307</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3656,7 +3716,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3321</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3708,7 +3768,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3332</t>
+          <t>3332</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3760,7 +3820,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3333</t>
+          <t>3333</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3812,7 +3872,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3378</t>
+          <t>3378</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3864,7 +3924,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3381</t>
+          <t>3381</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3904,7 +3964,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>23/06/2012</t>
@@ -3912,7 +3971,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3416</t>
+          <t>3416</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3964,7 +4023,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4016,7 +4075,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3499</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4068,7 +4127,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3500</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4120,7 +4179,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3526</t>
+          <t>3526</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4172,7 +4231,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3528</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4224,7 +4283,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3551</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4276,7 +4335,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3554</t>
+          <t>3554</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4316,7 +4375,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>08/09/2013</t>
@@ -4324,7 +4382,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3556</t>
+          <t>3556</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4376,7 +4434,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3617</t>
+          <t>3617</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4428,7 +4486,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3635</t>
+          <t>3635</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4480,7 +4538,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4532,7 +4590,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4584,7 +4642,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4636,7 +4694,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4688,7 +4746,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3724</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4740,7 +4798,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4780,7 +4838,6 @@
           <t>84</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -4788,7 +4845,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3733</t>
+          <t>3733</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4840,7 +4897,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4892,7 +4949,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3763</t>
+          <t>3763</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4944,7 +5001,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3771</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4996,7 +5053,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3777</t>
+          <t>3777</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5048,7 +5105,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5100,7 +5157,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3789</t>
+          <t>3789</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5140,7 +5197,6 @@
           <t>91</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -5148,7 +5204,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3800</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5200,7 +5256,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3839</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5252,7 +5308,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3840</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5304,7 +5360,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3842</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5356,7 +5412,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3901</t>
+          <t>3901</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5408,7 +5464,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3902</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5460,7 +5516,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5512,7 +5568,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5564,7 +5620,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5616,7 +5672,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5668,7 +5724,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5720,7 +5776,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5772,7 +5828,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3937</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5824,7 +5880,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5864,7 +5920,6 @@
           <t>105</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>04/03/2017</t>
@@ -5872,7 +5927,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4003</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5924,7 +5979,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5976,7 +6031,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6028,7 +6083,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6080,7 +6135,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6120,7 +6175,6 @@
           <t>110</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -6128,7 +6182,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6180,7 +6234,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4023</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6232,7 +6286,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6284,7 +6338,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6336,7 +6390,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6388,7 +6442,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6440,7 +6494,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4106</t>
+          <t>4106</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6492,7 +6546,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4107</t>
+          <t>4107</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6544,7 +6598,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6596,7 +6650,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6648,7 +6702,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4143</t>
+          <t>4143</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6700,7 +6754,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6752,7 +6806,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4152</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6804,7 +6858,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4156</t>
+          <t>4156</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6856,7 +6910,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6908,7 +6962,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6960,7 +7014,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7012,7 +7066,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7064,7 +7118,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7116,7 +7170,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7156,7 +7210,6 @@
           <t>130</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -7164,7 +7217,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7216,7 +7269,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7268,7 +7321,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7320,7 +7373,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7372,7 +7425,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7424,7 +7477,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7476,7 +7529,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7528,7 +7581,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7580,7 +7633,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7632,7 +7685,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7684,7 +7737,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4343</t>
+          <t>4343</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7736,7 +7789,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4347</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7788,7 +7841,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4352</t>
+          <t>4352</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7840,7 +7893,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7892,7 +7945,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7944,7 +7997,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7996,7 +8049,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8048,7 +8101,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8100,7 +8153,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8152,7 +8205,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4439</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8204,7 +8257,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4442</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8256,7 +8309,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8308,7 +8361,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8360,7 +8413,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4468</t>
+          <t>4468</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8399,7 +8452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8421,7 +8474,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -8458,7 +8511,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2485</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8495,7 +8548,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2599</t>
+          <t>2599</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -8532,7 +8585,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2601</t>
+          <t>2601</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8569,7 +8622,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2606</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8606,7 +8659,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2610</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -8643,7 +8696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2616</t>
+          <t>2616</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -8680,7 +8733,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2642</t>
+          <t>2642</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -8717,7 +8770,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2646</t>
+          <t>2646</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8754,7 +8807,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2658</t>
+          <t>2658</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -8791,7 +8844,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2665</t>
+          <t>2665</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -8828,7 +8881,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2673</t>
+          <t>2673</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -8865,7 +8918,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2682</t>
+          <t>2682</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -8902,7 +8955,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2698</t>
+          <t>2698</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -8939,7 +8992,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2699</t>
+          <t>2699</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -8976,7 +9029,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2711</t>
+          <t>2711</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -9013,7 +9066,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2715</t>
+          <t>2715</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -9050,7 +9103,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2805</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -9087,7 +9140,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2806</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -9124,7 +9177,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2807</t>
+          <t>2807</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -9161,7 +9214,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2849</t>
+          <t>2849</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -9198,7 +9251,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2851</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -9235,7 +9288,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2952</t>
+          <t>2952</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -9272,7 +9325,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2958</t>
+          <t>2958</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -9309,7 +9362,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2981</t>
+          <t>2981</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -9346,7 +9399,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2983</t>
+          <t>2983</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -9383,7 +9436,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2984</t>
+          <t>2984</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -9420,7 +9473,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3001</t>
+          <t>3001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -9457,7 +9510,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3005</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -9494,7 +9547,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3108</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -9531,7 +9584,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3124</t>
+          <t>3124</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -9568,7 +9621,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3136</t>
+          <t>3136</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -9605,7 +9658,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3138</t>
+          <t>3138</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -9642,7 +9695,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3143</t>
+          <t>3143</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -9679,7 +9732,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3145</t>
+          <t>3145</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -9716,7 +9769,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3151</t>
+          <t>3151</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -9753,7 +9806,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3154</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -9790,7 +9843,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3157</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -9827,7 +9880,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3158</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -9864,7 +9917,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3165</t>
+          <t>3165</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -9901,7 +9954,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3167</t>
+          <t>3167</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -9938,7 +9991,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3172</t>
+          <t>3172</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -9975,7 +10028,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3173</t>
+          <t>3173</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -10012,7 +10065,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3179</t>
+          <t>3179</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -10049,7 +10102,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3180</t>
+          <t>3180</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -10086,7 +10139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3181</t>
+          <t>3181</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -10123,7 +10176,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3243</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -10160,7 +10213,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3256</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -10197,7 +10250,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3261</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10234,7 +10287,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3271</t>
+          <t>3271</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10271,7 +10324,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3292</t>
+          <t>3292</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10308,7 +10361,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3293</t>
+          <t>3293</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10345,7 +10398,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3321</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10382,7 +10435,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3332</t>
+          <t>3332</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -10419,7 +10472,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3333</t>
+          <t>3333</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -10456,7 +10509,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3378</t>
+          <t>3378</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -10493,7 +10546,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3499</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -10530,7 +10583,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3500</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -10567,7 +10620,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3526</t>
+          <t>3526</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -10604,7 +10657,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3528</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -10641,7 +10694,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3551</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -10678,7 +10731,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3554</t>
+          <t>3554</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -10715,7 +10768,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3556</t>
+          <t>3556</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -10752,7 +10805,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3617</t>
+          <t>3617</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -10789,7 +10842,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3635</t>
+          <t>3635</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -10826,7 +10879,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -10863,7 +10916,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -10900,7 +10953,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -10937,7 +10990,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -10974,7 +11027,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3724</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -11011,7 +11064,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -11048,7 +11101,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -11085,7 +11138,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3763</t>
+          <t>3763</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -11122,7 +11175,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3771</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -11159,7 +11212,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3777</t>
+          <t>3777</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -11196,7 +11249,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -11233,7 +11286,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3789</t>
+          <t>3789</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -11270,7 +11323,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3839</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -11307,7 +11360,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3840</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -11344,7 +11397,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3842</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -11381,7 +11434,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3901</t>
+          <t>3901</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -11418,7 +11471,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3902</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -11455,7 +11508,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -11492,7 +11545,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -11529,7 +11582,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -11566,7 +11619,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -11603,7 +11656,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -11640,7 +11693,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -11677,7 +11730,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3937</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -11714,7 +11767,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4003</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -11751,7 +11804,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -11788,7 +11841,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -11825,7 +11878,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -11862,7 +11915,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -11899,7 +11952,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4023</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -11936,7 +11989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -11973,7 +12026,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -12010,7 +12063,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -12047,7 +12100,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -12084,7 +12137,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4106</t>
+          <t>4106</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -12121,7 +12174,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4107</t>
+          <t>4107</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -12158,7 +12211,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -12195,7 +12248,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -12232,7 +12285,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4143</t>
+          <t>4143</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -12269,7 +12322,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -12306,7 +12359,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4156</t>
+          <t>4156</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -12343,7 +12396,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -12380,7 +12433,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -12417,7 +12470,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -12454,7 +12507,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -12491,7 +12544,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -12528,7 +12581,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -12565,7 +12618,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4347</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -12602,7 +12655,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4352</t>
+          <t>4352</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -12639,7 +12692,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4442</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -12676,7 +12729,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -12713,7 +12766,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -12739,6 +12792,597 @@
       <c r="G117" t="inlineStr">
         <is>
           <t>0/13</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4284</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.02%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.76%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4291</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>19.27%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15.24%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6.70%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4343</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4347</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2.48%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4352</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.22%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4394</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13.08%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4397</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10.34%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4426</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4427</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4428</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6.38%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4439</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4442</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.88%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_3391.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_3391.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12942,10 +12943,6 @@
           <t>4295</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -13078,10 +13075,6 @@
           <t>4352</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -13184,10 +13177,6 @@
           <t>4426</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -13260,10 +13249,6 @@
           <t>4439</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -13379,12 +13364,327 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4093</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4097</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4106</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4107</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4111</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4113</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4143</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4150</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4156</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4158</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4190</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4284</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4347</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4352</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4442</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_3391.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_3391.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1754,6 +1752,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>28/07/2008</t>
@@ -1957,6 +1956,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>01/04/2009</t>
@@ -2056,6 +2056,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>19/04/2009</t>
@@ -2155,6 +2156,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>11/07/2009</t>
@@ -2930,6 +2932,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>18/08/2010</t>
@@ -3965,6 +3968,7 @@
           <t>67</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>23/06/2012</t>
@@ -4376,6 +4380,7 @@
           <t>75</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>08/09/2013</t>
@@ -4839,6 +4844,7 @@
           <t>84</t>
         </is>
       </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -5198,6 +5204,7 @@
           <t>91</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -5921,6 +5928,7 @@
           <t>105</t>
         </is>
       </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>04/03/2017</t>
@@ -6176,6 +6184,7 @@
           <t>110</t>
         </is>
       </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -6188,7 +6197,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7211,6 +7220,7 @@
           <t>130</t>
         </is>
       </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -7223,7 +7233,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -12799,894 +12809,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4284</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2.02%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4285</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>36.76%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4291</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>19.27%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4295</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4299</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15.24%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4301</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.70%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4343</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.94%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4347</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.48%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4352</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4391</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.22%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4394</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>13.08%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4397</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>10.34%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4426</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4427</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.42%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4428</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.38%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4439</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4442</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.88%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.37%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.39%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4093</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4097</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4106</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4107</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4111</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4113</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4143</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4150</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4156</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4158</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4190</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4284</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4285</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4299</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4301</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4347</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4352</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4442</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>